--- a/biology/Zoologie/Harmonia_antipodum/Harmonia_antipodum.xlsx
+++ b/biology/Zoologie/Harmonia_antipodum/Harmonia_antipodum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harmonia antipodum est une espèce d'insectes de la famille des coccinelles.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure 3 mm de long et est de couleur brune.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est endémique en Nouvelle-Zélande. On la trouve dans les forêts de l'île du Nord.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit sur Dacrydium cupressinum à la fois sur les feuilles et sous l'écorce.
 </t>
@@ -604,7 +622,9 @@
           <t>Espèce voisine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une autre coccinelle du même genre (Harmonia conformis) a été importée en Nouvelle-Zélande, mais elle est beaucoup plus grande et de couleur plus voyante.
 Sur les autres projets Wikimedia :
@@ -637,7 +657,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence BioLib : Harmonia antipodum (Mulsant, 1848)
  Portail de l’entomologie   Portail de la Nouvelle-Zélande                    </t>
